--- a/CorrelatedSubquerytableEmployees.xlsx
+++ b/CorrelatedSubquerytableEmployees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQL\CorrelatedSubquery_Project\CorrelatedSubquerry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6591F7CD-063D-487E-B74C-75C5241109BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF151FEE-9ECB-436B-9B19-3CB15061840F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{304ACFC8-B2C5-41CA-A9AC-C5DB9CA76D86}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="E7:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -558,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>17</v>

--- a/CorrelatedSubquerytableEmployees.xlsx
+++ b/CorrelatedSubquerytableEmployees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQL\CorrelatedSubquery_Project\CorrelatedSubquerry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF151FEE-9ECB-436B-9B19-3CB15061840F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F0EF18-1FE3-4C2B-BFE3-5606A84C358D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{304ACFC8-B2C5-41CA-A9AC-C5DB9CA76D86}"/>
   </bookViews>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB11284-A0E8-43A4-81F5-75CFF1B812EF}">
   <dimension ref="E7:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="217" workbookViewId="0">
+      <selection activeCell="H13" activeCellId="3" sqref="I8 H8 H11 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
